--- a/datafiles/attack_data.xlsx
+++ b/datafiles/attack_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>cooldown</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Xan_quickdraw</t>
+  </si>
+  <si>
+    <t>Dogan_poison</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -123,17 +126,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,166 +494,369 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datafiles/attack_data.xlsx
+++ b/datafiles/attack_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>cooldown</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Dogan_poison</t>
+  </si>
+  <si>
+    <t>crit_mod</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,29 +129,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,28 +461,31 @@
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -512,8 +507,11 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,8 +533,11 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,8 +559,11 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -581,8 +585,11 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -604,8 +611,11 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -627,8 +637,11 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -650,9 +663,12 @@
       <c r="G8" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1">
@@ -673,8 +689,11 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -696,8 +715,11 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -719,8 +741,11 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -742,8 +767,11 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -765,8 +793,11 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -788,8 +819,11 @@
       <c r="G14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -811,8 +845,11 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -834,8 +871,11 @@
       <c r="G16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -856,6 +896,9 @@
       </c>
       <c r="G17" s="1">
         <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
